--- a/500all/speech_level/speeches_CHRG-114hhrg97997.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97997.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400348</t>
   </si>
   <si>
-    <t>Edward R. Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Royce. This hearing will come to order. There is a vote in progress. So my intention here is to begin the hearing, and then we will suspend for the duration of the votes and allow the other members of the committee to come forward. But in this fashion, myself and Congressman Poe can make our opening statements, and maybe some of the other members will be able to as well.    This hearing is on the future of U.S.-Pakistan relations. The committee has repeatedly urged Pakistan to take meaningful action against key Islamist terrorist groups operating within its territory. Unfortunately, Pakistan, which is now home to the world's fastest growing nuclear weapons program, has remained a fount of radical Islamist thought. It was no surprise that one of the San Bernardino attackers, Tafsheen Malik, studied at a Pakistani school spreading a particularly fundamentalist message.    Looking back, the 9/11 terrorist attacks transformed the U.S.-Pakistan relations overnight. After more than a decade under sanctions for its nuclear proliferation, Pakistan was to be a key ally in combatting Islamist militancy, becoming a leading recipient of U.S. aid in the nearly 15 years since.    But while the U.S. was quick to embrace Pakistan, Pakistan has hardly reciprocated. Pakistani Governments have come and gone, but its northwestern frontier has remained a terrorist haven. With its security services supporting what it considers to be good Islamist terrorist groups, these good groups--under Pakistan's calculus--destabilize Afghanistan and threaten neighboring India while the government simultaneously opposes what it considers the bad Islamist groups.    Today Deobandi schools create an infrastructure of hate. Six-hundred Deobandi madrassas, funded with Gulf state money, teach intolerant, hate-filled rhetoric that inspires the foot soldiers of jihadist terrorism. I have made three trips to Islamabad to press this issue. Pakistan must do the work to register schools and close those creating new generations of radicals, and those are the schools that are being funded with Gulf state money, the Deobandi schools, and they need to be closed.    Meanwhile, Pakistan's nuclear arsenal is on a track to be the third largest. Its addition of small tactical nuclear weapons in recent years is even more troubling. This is a country which spends a fifth of its budget on the military, from long-range missiles to F-16s, but under 2.5 percent on education.    Through all of the double dealing, U.S. policy has essentially stood still. Security assistance--cash and arms--has continued to flow after the occasional temporary delays. Indeed, despite some Department of Defense assistance for Pakistan being held because of inadequate efforts against the Haqqani Network, the State Department is currently seeking more arms for Islamabad.    Pakistan itself has been devastated by terrorism with thousands, over 2,000, of its soldiers killed, thousands and thousands of its citizens killed, in terrorist attacks. Today we recognize the year anniversary of a horrific attack on a school in Peshawar that killed over 100 children. We want a strong partnership with the country, but a new policy is long overdue. One option, as Ranking Member Engel and I proposed earlier this year, would be to target those officials who maintain relationships with designated terrorist groups with travel and financial sanctions. This would make it clear: The U.S. and Pakistan cannot have a true strategic partnership until Pakistan security services cuts ties with terrorist organizations.    Recently, senior U.S. officials--including National Security Adviser Susan Rice and Deputy Secretary of State Tony Blinken--have traveled to Islamabad reportedly to press on the Pakistani Government. We look forward to hearing from our witness today whether there is reason for hope or if our policy is stuck in the same rut.    And I now will turn to Mr. Ted Poe of Texas and Mr. Dana Rohrabacher of California for their opening statements.    Mr. Poe.</t>
   </si>
   <si>
     <t>400652</t>
   </si>
   <si>
-    <t>Ted Poe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Mr. Chairman.    My concern specifically is with our relationship with Pakistan. The United States has given Pakistan $30 billion since 9/11. I think Pakistan is a Benedict Arnold ally to the United States. Even going back to May the 2nd, 2011, when there was the raid in Pakistan on Osama bin Laden, we didn't tell the Pakistanis we were coming because, frankly, they would snitch us off, and Osama bin Laden would have left. And the near confrontation that took place between the U.S. and Pakistan after the raid--Pakistan scrambled two U.S.-made F-16s and were headed to the area where the raid took place and a possible confrontation with two U.S.-made jets against American helicopters at the raid didn't happen, but it could have happened--pilots that presumably were trained the year before in 2010 in Tucson, Arizona. And I think we need to be very concerned about providing armaments for Pakistan, who seems to play all the sides.    And I would yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much. When I was elected 28 years ago, I think most people considered me Pakistan's best friend in the House of Representatives. And let me just say that over the years, I have been deeply disappointed that those people who I considered to be my friends were betraying the trust of the United States and were committing acts that were only the acts that an enemy would commit, even though we continued to have a facade of friendship.    We have given $30 billion--$30 billion--since 9/11, to Pakistan. Yet we realize that since 9/11 that there is ample evidence that Pakistan is still deeply involved with various terrorist networks, including supporting the Taliban in Afghanistan, and radicals who kill Americans. Frankly, our relationship with Pakistan has been a disgrace. We have a government that gave safe haven to Osama bin Laden, the murderer of 3,000 Americans--3,000 Americans slaughtered in front of us. I don't think anybody believes that the high level people in the Pakistan Government didn't know about that. They continue to hold Dr. Afridi, just to rub it in our face. That is the type of relationship they have with us. And to their own people, they are slaughtering people in the Balochistan and the Sindhis and others who are being brutally oppressed by a clique in their government, so it is not all Pakistan, but the clique that runs that country is treating us like suckers. And they should because we are. We are acting foolish, very foolish. Giving people money who have continually involved themselves in activity that is harmful to the United States of America is not going to win their friendship.    So, Mr. Chairman, I hope that we face facts, and if the Pakistani Government wants to be our friend, they can be our friend. But they have not been, and they need to change that if we are to continue on the relationship that we have. I would like to at this point to submit for the record a number of articles showing that, again, Pakistan continues to support various terrorist operations as well as their relationship with China, at the expense of their own people, the Baloch in particular, and I submit that for the record at this point.</t>
   </si>
   <si>
@@ -91,18 +82,12 @@
     <t>400344</t>
   </si>
   <si>
-    <t>Ileana Ros-Lehtinen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen [presiding]. I will give him the opportunity to make an opening statement, if Dr. Bera would like to make one, and then I will introduce the Ambassador. He will make his statement, and we will get to the questions and answers.    Dr. Bera is recognized.</t>
   </si>
   <si>
     <t>412512</t>
   </si>
   <si>
-    <t>Ami Bera</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bera. Thank you, Madam Chairwoman. I will keep my comments short so we can hear from the Ambassador.    Obviously, as we look at the South Asian region, we look at India, we look at Pakistan, the relationship is incredibly important, particularly as the changing mission in Afghanistan is--the role of Pakistan and India in stabilizing the region is incredibly complex and important.    It is an honor to welcome Ambassador Olson to the job. I understand this is your first month on the job, so looking forward to working with you and looking forward to furthering the relationship between the United States and South Asia and stabilizing the region. So thank you.</t>
   </si>
   <si>
@@ -112,9 +97,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Olson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Olson. Madam Chair, members of the committee, thank you for the opportunity to appear before you today to discuss the current state of the United States' bilateral relationship with Pakistan. I am honored to testify in front of you for the first time in my capacity as U.S. Special Representative for Afghanistan and Pakistan, after having served as your Ambassador in Pakistan and previously at our Embassy in Kabul. I am humbled and privileged to be in this new role at such a critical time for the U.S. relationship with both Pakistan and Afghanistan.    It is clear to me that despite many challenges, Pakistan will continue to be an important partner for the United States for the foreseeable future, particularly in light of our enduring presence in Afghanistan. While we do not always see eye to eye on every issue, our relationship with Pakistan is vital to the national security of the United States. Most importantly, we have the opportunity to continue working with Pakistan today on counterterrorism issues along with strategic stability, economic growth, and democratic governance to help shape a future in which Pakistan is more stable, increasingly prosperous, and plays a constructive role in the region.    Pakistan is a complex place, and it is important not to overlook the significant progress made in the last few years. In 2013, Pakistan completed its first democratic transition from one elected civilian government to another. During the past 2 years, we can point to progress, however imperfect, made across the economic and security sectors. Prime Minister Nawaz Sharif and his team have restored macroeconomic stability to Pakistan and improved economic growth. While structural changes are still needed to set Pakistan's economy on a path to accelerated growth, the reforms to date are a considerable accomplishment.    There has also been substantial changes on the security front. Beginning in June 2014, Pakistan initiated large-scale counterterrorism operations in the Federally Administered Tribal Areas. The subsequent Peshawar Army School attack of exactly 1 year ago today was cited by terrorists as retribution for Pakistan's operations. It galvanized public opinion in Pakistan and prompted Pakistan to increase its counterterrorism efforts, not just in tribal areas. Through these operations, Pakistan has rooted out many terrorist safe havens and recovered more than 160 tons of improvised explosive device precursors.    In addition to taking action on internal threats, Pakistan's CT cooperation with the United States on al-Qaeda has been critical in decimating the organization. However, while Pakistan has made significant sacrifices in its fight against terrorism, we believe it can also take more steps to put pressure on all terrorist groups in Pakistan that threaten regional stability.    Pakistan is becoming a more constructive actor in the region. Last July, Pakistan facilitated a direct meeting between Afghan Government and Taliban officials in Murree, Pakistan, a milestone in our ongoing efforts to pursue a political settlement in Afghanistan. Last week Pakistan hosted the Regional Heart of Asia conference, attended by President Ghani, which yielded productive discussions about regional cooperation to advance the peace process and Afghanistan's long-term stability. In addition, India and Pakistan's commitment last week to restart a bilateral dialogue is particularly important.    In describing this progress, it is nonetheless clear that real challenges remain. While we see progress in decreasing the presence of certain terrorists in Pakistan, we continue to press Pakistan to target all militant groups that have safe haven in Pakistan, particularly the Taliban, including the Haqqani Network and Lashkar-e-Tayyiba. We have made it clear to the Pakistanis that these organizations threaten Pakistan, the region, and the panoply of our mutual national security interests, and they must be addressed rigorously.    We have also asked Pakistan to do all that it can to help recover U.S. citizens hostages held on Pakistani territory. We continue to press for greater cooperation between Afghanistan and Pakistan, both to stabilize the common border region and to build the constructive relationship necessary for regional stability. It is also critical that Pakistan improve relations with its other neighbor, India. Recent high-level talks between Indian and Pakistani officials and the announcement of the resumption of formal dialogue is welcome. We hope the dialogue will be used to reduce tensions and increase ties between the two nations.    Naturally, as Pakistan seeks to combat violent extremism and pursue counterinsurgency and counterterrorism objectives, we continue to encourage and support Pakistan to strengthen the rule of law, civil liberties, respect for human rights, accountability, and freedom of speech, which we firmly believe are vital to lasting peace and security.    Our civilian assistance programs help make progress toward these economic governance ends and a developing democracy, and it is essential they are sustained at current levels.    With that, I would like to conclude my statement, Madam Chair, and I am available for your questions and comments.</t>
   </si>
   <si>
@@ -178,9 +160,6 @@
     <t>412595</t>
   </si>
   <si>
-    <t>Robin L. Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kelly. When you consider the future of U.S.-Pakistan relations, what do you see as the key aims and drivers of our Pakistan policy?</t>
   </si>
   <si>
@@ -220,9 +199,6 @@
     <t>400641</t>
   </si>
   <si>
-    <t>Brian Higgins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Higgins. Thank you, Madam Chair.</t>
   </si>
   <si>
@@ -238,9 +214,6 @@
     <t>412513</t>
   </si>
   <si>
-    <t>Paul Cook</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cook. Thank you, Madam Chairman.    Many of the questions or comments are things that I was going to address, and I just want to follow through on that. I think Mr. Higgins made some great comments about that. I think we are all concerned because of the size of the nuclear weapons and everything else, and there is a part of me that wants to say, you know, in all fairness, Pakistan has been a great ally of ours, particularly from the military standpoint, and we never would have gotten that equipment out of Iraq because there was only one way to go, and that was through Pakistan. We kind of overlooked that, and, of course, I still think the only country that is going to control Afghanistan's destiny is Pakistan. Whether you hate them, like them or not, that to me--and I see you are shaking your head, and you agree with that--all those things considered, I am going to throw something which really, really scares me. And there has been talk that in light of the Iranian deal and the nuclear weapons in a Persian country, in a Shiite country, in your opinion, is there any possibility that Pakistan would not just give the technology but actually sell nuclear weapons to the Sunni states with money--particularly, and I won't name them, but I think we all know who they are--that this proliferation would start on a scale that would just change the whole calculus of the region?</t>
   </si>
   <si>
@@ -262,9 +235,6 @@
     <t>412532</t>
   </si>
   <si>
-    <t>Tulsi Gabbard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Madam Chair.    Just following up on my colleague Mr. Cook's questions, you know, the concern is you are talking about robust engagement with ISI. But there has been evidence time and time again of their direct and indirect connections with the Haqqani Network. In 2011, then Chairman of the Joint Chiefs of Staff, Admiral Mike Mullin, called the Haqqani Network a veritable arm of the ISI. So as you are having these discussions, you talked a lot about how more must be done; discussions are taking place. But I am wondering what action, what change in U.S. policy has occurred that would actually bring about a consequential shift?</t>
   </si>
   <si>
@@ -301,9 +271,6 @@
     <t>412569</t>
   </si>
   <si>
-    <t>Scott Perry</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perry [presiding]. The Chair thanks the gentlelady.    The Chair now recognizes himself.</t>
   </si>
   <si>
@@ -340,9 +307,6 @@
     <t>412521</t>
   </si>
   <si>
-    <t>Alan S. Lowenthal</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lowenthal. Thank you, Mr. Chair.    I want to follow up--I think you have probably touched on some of these answers already, but I really want to kind of deal with my own concerns. Like Congressman Higgins and Cook and others, I am troubled about the reports of Pakistan's development of what I consider destabilizing tactical nuclear weapons at a faster rate than most other countries, if not than any other country. I really want to understand, again, a little bit more clearly your assessment of Pakistan's progress in cooperating with the international community on nuclear proliferation concerns. And also the second part of that question has to do with some recent media reports suggesting that our administration is considering some kind of nuclear arrangement with Pakistan. I don't know. I am not really clear; what is a nuclear arrangement? And if we are considering it, is Pakistan really a trustworthy partner, again, in that? Again, like other members, the nuclear proliferation treaty concerns are very troubling.</t>
   </si>
   <si>
@@ -382,9 +346,6 @@
     <t>412525</t>
   </si>
   <si>
-    <t>Ted S. Yoho</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -424,9 +385,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you. On November 18, Anwar Laghari, the brother of the Sindh activist who is the chief advocate here in Washington, Munawar Laghari, was killed. There is an ongoing investigation. I want to thank you and the State Department for the counsel general's focus on this. And it raises the bigger issue as to whether there are forces in Pakistan that are simply hostile to any region of the country other than Punjab. What percentage of the general officers of the military are Punjabi? I don't know if you have that available.</t>
   </si>
   <si>
@@ -487,9 +445,6 @@
     <t xml:space="preserve">    Chairman Royce. My time has expired.    But without objection, I am going to ask unanimous consent that Representative Sheila Jackson Lee be next in terms of asking any questions. She is not on the committee, but she wanted to participate today.    So, without objection, we will go to Representative Sheila Jackson Lee from Texas.</t>
   </si>
   <si>
-    <t>Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Mr. Chairman, thank you for your kindness. It is much appreciated--along with the ranking member, thank you so very much.    I chair the Congressional Pakistan Caucus with my colleague and have done so for more than a decade. So thank you very much for your presence here. I am going to go pointedly to a question dealing with an American doctor of some years back. In 2014, Dr. Mehdi Ali Qamar, out of Chicago I believe, who came on a mission to serve, and, of course, he had a different religious background, Ahmadiyya. And I am just wondering did we ever solve his killing? And was there any response to that very tragic incident? From Chicago, I believe.</t>
   </si>
   <si>
@@ -548,9 +503,6 @@
   </si>
   <si>
     <t>400122</t>
-  </si>
-  <si>
-    <t>Eliot L. Engel</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Engel. Thank you very much, Mr. Chairman.    And, Ambassador Olson, it is good to see you. We had a good meeting yesterday in my office. I was just debating a bill on the House floor and also a New York delegation. So I apologize for missing the first part of the hearing. But we discussed many of the issues. And I am delighted with your appointment. What I am going to do is make a statement and then ask you to comment on it. This week, we marked 5 years since the passing of Ambassador Holbrooke, who was our first Special Representative for Afghanistan and Pakistan. And we still feel his loss. He left a remarkable legacy. And his final effort was laying the groundwork for resolving the long conflict in Afghanistan and Pakistan. And I hope we are able to take advantage of that work. As I mentioned before, Ambassador Olson, I am confident that with your previous experience in both Afghanistan and Pakistan, this important task is in the right hands.    When President Obama took office, I was encouraged by the bipartisan commitment to support our military forces, diplomats, and development workers in Afghanistan, and to renew our partnership with the civilian leadership of Pakistan. This focus on Pakistan was reflected in the Kerry-Lugar-Berman bill passed by Congress in 2009. But that authorization recently expired. And now is a good time to take stock of the status of the U.S.-Pakistan relationship. We are used to hearing some bad news about Pakistan. But the Pakistani people have achieved some noteworthy accomplishments in recent years. Pakistan has seen its first peaceful transfer of power from one democratically elected government to another. I think this was a historic moment for the country.    Thanks to collaboration with our own USAID, today Pakistan has added 1750 megawatts of electricity to its energy grid, 30,000 new jobs, nearly 1,000 new or refurbished schools, and the more than 18,000 newly trained teachers. And let me commend our development experts for their hard work in a very challenging environment.    On the security side, we have seen much more modest progress. Terrorist groups based in Pakistan continue to pose a serious threat to Americans, Pakistanis, and our partners throughout South Asia and the world. Moreover, Pakistan has provided some extremist groups safe haven and a permissive environment that allows extremist ideology to spread. The result is terrorist attacks in Afghanistan, India, in the U.K., and here in the United States. But the hardest hit have been the Pakistani people. Terrorism inside Pakistan has killed more than 50,000 people since 2003. That is 50,000 people.    A year ago today, terrorists affiliated with the Pakistani Taliban, also known as TTP, massacred more than 140 teachers and students at the Army Public School in Peshawar. Absolutely horrific. After years of prodding and far too many lives lost, the Pakistani Government finally took military action against TTP in North Waziristan. Along with many others, I had high hopes for those efforts. I was also hopeful when Pakistan's Parliament took a leading role in establishing a National Action Plan to comprehensively address terrorism in the aftermath of the Peshawar attacks.    When Pakistan's Government decided it would no longer differentiate between good and bad terrorists, that suggested a real change in Pakistan's approach, a positive change, to addressing terrorism in the country. But, yet again, we have seen little evidence that the Government of Pakistan has followed through on these commitments. And so some violent groups continue to operate in Pakistan with impunity, including the Haqqani Network, responsible for the deaths of hundreds of Americans in Afghanistan, and Lashkar-e-Tayyiba, also called LET, the group responsible for the 2008 Mumbai attacks, which also cost American lives. There are some in Pakistan who believe they can manage these groups. Yet Lashkar terrorists end up fighting our troops in Afghanistan. And Haqqani Network terrorists have pledged allegiance to al-Qaeda. It is clear that Pakistan is a long way from solving these problems.    So, Ambassador Olson, as we discuss these issues, I hope we can focus on a few key areas. First of all, what is it going to take for Pakistan to stop differentiating between good and bad terrorists and start treating all terrorists as bad and all terrorists as the threat that they are? Does our own policy effectively convey to Pakistan that the harm from these relationships outweigh any perceived benefit?    Next, I am curious about how Pakistani acquiescence in or support for terrorist groups is affecting its neighbors. Can Afghanistan stabilize while Pakistan continues to host groups like the Haqqani Network? Can Pakistan and India have a normal relationship when Pakistan continues to support LET?    And, lastly, I am concerned about the messages we are sending when we continue to provide Pakistan security assistance, despite Pakistan's ongoing relationships with the Haqqani Network and LET. We need to be clear-eyed about Pakistan's counterterrorism efforts.    Now, I believe in the U.S.-Pakistan alliance. I believe that the United States and Pakistan should be allies and continue to work together. But I think the question about terrorism is a very important question. And it really has not been satisfactorily, in my opinion, met by the Pakistani Government. Also, I hope we can soon see a country strategy for Pakistan and Afghanistan from USAID so that we can maximize the remaining foreign assistance to both countries. In my view, we need to include incentives that encourage Pakistan to make much needed energy sector and tax reforms. We all want to see a peaceful, stable, and prosperous Pakistan that is an integrated part of a larger, more connected Central and South Asia. This simply cannot happen with the continued instability that exists in Pakistan and Afghanistan.    So I am wondering, Ambassador, if you could answer some of these questions I made. If you have already done it, then we can do it in writing afterwards. But if you can answer, I would be grateful. Thank you.    And I wish you good luck. And as I said before, I think you are the right man for the job.</t>
@@ -1003,11 +955,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1027,13 +977,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1055,11 +1003,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1079,13 +1025,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1107,11 +1051,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1131,13 +1073,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1159,11 +1099,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1183,13 +1121,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1209,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1235,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>25</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1261,13 +1193,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1287,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1313,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1339,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1365,13 +1289,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
         <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1391,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1417,13 +1337,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1443,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1469,13 +1385,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1495,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1521,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1547,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1573,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1599,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1625,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1651,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1677,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1703,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1729,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1755,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1781,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1807,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1833,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1859,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1885,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1911,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1937,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
         <v>54</v>
-      </c>
-      <c r="H38" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1963,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1989,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2015,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2041,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2067,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2093,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
-      </c>
-      <c r="G44" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2119,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2145,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
-      </c>
-      <c r="G46" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2171,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2197,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2223,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2249,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2275,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2301,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2327,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2353,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>81</v>
-      </c>
-      <c r="G54" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2379,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2405,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>81</v>
-      </c>
-      <c r="G56" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2431,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
-      </c>
-      <c r="G57" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2457,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>81</v>
-      </c>
-      <c r="G58" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2483,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2509,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>81</v>
-      </c>
-      <c r="G60" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2535,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G61" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2561,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
+        <v>72</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
         <v>81</v>
-      </c>
-      <c r="G62" t="s">
-        <v>82</v>
-      </c>
-      <c r="H62" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2587,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
-      </c>
-      <c r="G63" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2613,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>81</v>
-      </c>
-      <c r="G64" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2639,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>94</v>
-      </c>
-      <c r="G65" t="s">
-        <v>95</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2665,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
-      </c>
-      <c r="G66" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2691,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>94</v>
-      </c>
-      <c r="G67" t="s">
-        <v>95</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2717,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
-      </c>
-      <c r="G68" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2743,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>94</v>
-      </c>
-      <c r="G69" t="s">
-        <v>95</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2769,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
-      </c>
-      <c r="G70" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2795,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>94</v>
-      </c>
-      <c r="G71" t="s">
-        <v>95</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2821,13 +2633,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
-      </c>
-      <c r="G72" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2847,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>94</v>
-      </c>
-      <c r="G73" t="s">
-        <v>95</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2873,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2899,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>94</v>
-      </c>
-      <c r="G75" t="s">
+        <v>84</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
         <v>95</v>
-      </c>
-      <c r="H75" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2925,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>107</v>
-      </c>
-      <c r="G76" t="s">
-        <v>108</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2951,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
-      </c>
-      <c r="G77" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2977,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>107</v>
-      </c>
-      <c r="G78" t="s">
-        <v>108</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3003,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
-      </c>
-      <c r="G79" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3029,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>107</v>
-      </c>
-      <c r="G80" t="s">
-        <v>108</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3055,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
-      </c>
-      <c r="G81" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3081,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>107</v>
-      </c>
-      <c r="G82" t="s">
-        <v>108</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3107,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
-      </c>
-      <c r="G83" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3133,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>107</v>
-      </c>
-      <c r="G84" t="s">
-        <v>108</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3159,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
-      </c>
-      <c r="G85" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3185,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
+        <v>96</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
         <v>107</v>
-      </c>
-      <c r="G86" t="s">
-        <v>108</v>
-      </c>
-      <c r="H86" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3211,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>94</v>
-      </c>
-      <c r="G87" t="s">
-        <v>95</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3237,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>121</v>
-      </c>
-      <c r="G88" t="s">
-        <v>122</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3263,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
-      </c>
-      <c r="G89" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3289,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>121</v>
-      </c>
-      <c r="G90" t="s">
-        <v>122</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3315,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
-      </c>
-      <c r="G91" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3341,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>121</v>
-      </c>
-      <c r="G92" t="s">
-        <v>122</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3367,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
-      </c>
-      <c r="G93" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3393,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>121</v>
-      </c>
-      <c r="G94" t="s">
-        <v>122</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3419,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
-      </c>
-      <c r="G95" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3445,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>121</v>
-      </c>
-      <c r="G96" t="s">
-        <v>122</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3471,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
-      </c>
-      <c r="G97" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3497,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>121</v>
-      </c>
-      <c r="G98" t="s">
-        <v>122</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3525,11 +3283,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3549,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>135</v>
-      </c>
-      <c r="G100" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3575,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
-      </c>
-      <c r="G101" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3601,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>135</v>
-      </c>
-      <c r="G102" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3627,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
-      </c>
-      <c r="G103" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3653,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>135</v>
-      </c>
-      <c r="G104" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3679,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
-      </c>
-      <c r="G105" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3705,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>135</v>
-      </c>
-      <c r="G106" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3731,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
-      </c>
-      <c r="G107" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3757,13 +3497,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>135</v>
-      </c>
-      <c r="G108" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3783,13 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
-      </c>
-      <c r="G109" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3809,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>135</v>
-      </c>
-      <c r="G110" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3835,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
-      </c>
-      <c r="G111" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3861,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
+        <v>122</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
         <v>135</v>
-      </c>
-      <c r="G112" t="s">
-        <v>136</v>
-      </c>
-      <c r="H112" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3889,11 +3619,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3913,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
-      </c>
-      <c r="G114" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3941,11 +3667,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3965,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
-      </c>
-      <c r="G116" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3993,11 +3715,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4017,13 +3737,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
-      </c>
-      <c r="G118" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4045,11 +3763,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4069,13 +3785,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
-      </c>
-      <c r="G120" t="s">
-        <v>157</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4095,13 +3809,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
-      </c>
-      <c r="G121" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4121,13 +3833,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
-      </c>
-      <c r="G122" t="s">
-        <v>157</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4147,13 +3857,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
-      </c>
-      <c r="G123" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4173,13 +3881,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
-      </c>
-      <c r="G124" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4199,13 +3905,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
-      </c>
-      <c r="G125" t="s">
-        <v>157</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4225,13 +3929,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
-      </c>
-      <c r="G126" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4251,13 +3953,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>31</v>
-      </c>
-      <c r="G127" t="s">
-        <v>157</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4277,13 +3977,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
-      </c>
-      <c r="G128" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4303,13 +4001,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
-      </c>
-      <c r="G129" t="s">
-        <v>157</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4329,13 +4025,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
-      </c>
-      <c r="G130" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4355,13 +4049,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
-      </c>
-      <c r="G131" t="s">
-        <v>157</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4381,13 +4073,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
-      </c>
-      <c r="G132" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4407,13 +4097,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
-      </c>
-      <c r="G133" t="s">
-        <v>157</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4433,13 +4121,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
-      </c>
-      <c r="G134" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4459,13 +4145,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
-      </c>
-      <c r="G135" t="s">
-        <v>157</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4485,13 +4169,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
-      </c>
-      <c r="G136" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4511,13 +4193,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
-      </c>
-      <c r="G137" t="s">
-        <v>157</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4539,11 +4219,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4563,13 +4241,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>177</v>
-      </c>
-      <c r="G139" t="s">
-        <v>178</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4589,13 +4265,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
-      </c>
-      <c r="G140" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4615,13 +4289,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>177</v>
-      </c>
-      <c r="G141" t="s">
-        <v>178</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4643,11 +4315,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4667,13 +4337,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>67</v>
-      </c>
-      <c r="G143" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4693,13 +4361,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
-      </c>
-      <c r="G144" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4719,13 +4385,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>67</v>
-      </c>
-      <c r="G145" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4747,11 +4411,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4771,13 +4433,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>135</v>
-      </c>
-      <c r="G147" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4797,13 +4457,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
-      </c>
-      <c r="G148" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4823,13 +4481,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>135</v>
-      </c>
-      <c r="G149" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4849,13 +4505,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
-      </c>
-      <c r="G150" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4875,13 +4529,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>135</v>
-      </c>
-      <c r="G151" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4903,11 +4555,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4927,13 +4577,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>135</v>
-      </c>
-      <c r="G153" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4955,11 +4603,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4979,13 +4625,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>135</v>
-      </c>
-      <c r="G155" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5007,11 +4651,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97997.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97997.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Royce</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Royce. This hearing will come to order. There is a vote in progress. So my intention here is to begin the hearing, and then we will suspend for the duration of the votes and allow the other members of the committee to come forward. But in this fashion, myself and Congressman Poe can make our opening statements, and maybe some of the other members will be able to as well.    This hearing is on the future of U.S.-Pakistan relations. The committee has repeatedly urged Pakistan to take meaningful action against key Islamist terrorist groups operating within its territory. Unfortunately, Pakistan, which is now home to the world's fastest growing nuclear weapons program, has remained a fount of radical Islamist thought. It was no surprise that one of the San Bernardino attackers, Tafsheen Malik, studied at a Pakistani school spreading a particularly fundamentalist message.    Looking back, the 9/11 terrorist attacks transformed the U.S.-Pakistan relations overnight. After more than a decade under sanctions for its nuclear proliferation, Pakistan was to be a key ally in combatting Islamist militancy, becoming a leading recipient of U.S. aid in the nearly 15 years since.    But while the U.S. was quick to embrace Pakistan, Pakistan has hardly reciprocated. Pakistani Governments have come and gone, but its northwestern frontier has remained a terrorist haven. With its security services supporting what it considers to be good Islamist terrorist groups, these good groups--under Pakistan's calculus--destabilize Afghanistan and threaten neighboring India while the government simultaneously opposes what it considers the bad Islamist groups.    Today Deobandi schools create an infrastructure of hate. Six-hundred Deobandi madrassas, funded with Gulf state money, teach intolerant, hate-filled rhetoric that inspires the foot soldiers of jihadist terrorism. I have made three trips to Islamabad to press this issue. Pakistan must do the work to register schools and close those creating new generations of radicals, and those are the schools that are being funded with Gulf state money, the Deobandi schools, and they need to be closed.    Meanwhile, Pakistan's nuclear arsenal is on a track to be the third largest. Its addition of small tactical nuclear weapons in recent years is even more troubling. This is a country which spends a fifth of its budget on the military, from long-range missiles to F-16s, but under 2.5 percent on education.    Through all of the double dealing, U.S. policy has essentially stood still. Security assistance--cash and arms--has continued to flow after the occasional temporary delays. Indeed, despite some Department of Defense assistance for Pakistan being held because of inadequate efforts against the Haqqani Network, the State Department is currently seeking more arms for Islamabad.    Pakistan itself has been devastated by terrorism with thousands, over 2,000, of its soldiers killed, thousands and thousands of its citizens killed, in terrorist attacks. Today we recognize the year anniversary of a horrific attack on a school in Peshawar that killed over 100 children. We want a strong partnership with the country, but a new policy is long overdue. One option, as Ranking Member Engel and I proposed earlier this year, would be to target those officials who maintain relationships with designated terrorist groups with travel and financial sanctions. This would make it clear: The U.S. and Pakistan cannot have a true strategic partnership until Pakistan security services cuts ties with terrorist organizations.    Recently, senior U.S. officials--including National Security Adviser Susan Rice and Deputy Secretary of State Tony Blinken--have traveled to Islamabad reportedly to press on the Pakistani Government. We look forward to hearing from our witness today whether there is reason for hope or if our policy is stuck in the same rut.    And I now will turn to Mr. Ted Poe of Texas and Mr. Dana Rohrabacher of California for their opening statements.    Mr. Poe.</t>
   </si>
   <si>
     <t>400652</t>
   </si>
   <si>
+    <t>Poe</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Poe. Thank you, Mr. Chairman.    My concern specifically is with our relationship with Pakistan. The United States has given Pakistan $30 billion since 9/11. I think Pakistan is a Benedict Arnold ally to the United States. Even going back to May the 2nd, 2011, when there was the raid in Pakistan on Osama bin Laden, we didn't tell the Pakistanis we were coming because, frankly, they would snitch us off, and Osama bin Laden would have left. And the near confrontation that took place between the U.S. and Pakistan after the raid--Pakistan scrambled two U.S.-made F-16s and were headed to the area where the raid took place and a possible confrontation with two U.S.-made jets against American helicopters at the raid didn't happen, but it could have happened--pilots that presumably were trained the year before in 2010 in Tucson, Arizona. And I think we need to be very concerned about providing armaments for Pakistan, who seems to play all the sides.    And I would yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much. When I was elected 28 years ago, I think most people considered me Pakistan's best friend in the House of Representatives. And let me just say that over the years, I have been deeply disappointed that those people who I considered to be my friends were betraying the trust of the United States and were committing acts that were only the acts that an enemy would commit, even though we continued to have a facade of friendship.    We have given $30 billion--$30 billion--since 9/11, to Pakistan. Yet we realize that since 9/11 that there is ample evidence that Pakistan is still deeply involved with various terrorist networks, including supporting the Taliban in Afghanistan, and radicals who kill Americans. Frankly, our relationship with Pakistan has been a disgrace. We have a government that gave safe haven to Osama bin Laden, the murderer of 3,000 Americans--3,000 Americans slaughtered in front of us. I don't think anybody believes that the high level people in the Pakistan Government didn't know about that. They continue to hold Dr. Afridi, just to rub it in our face. That is the type of relationship they have with us. And to their own people, they are slaughtering people in the Balochistan and the Sindhis and others who are being brutally oppressed by a clique in their government, so it is not all Pakistan, but the clique that runs that country is treating us like suckers. And they should because we are. We are acting foolish, very foolish. Giving people money who have continually involved themselves in activity that is harmful to the United States of America is not going to win their friendship.    So, Mr. Chairman, I hope that we face facts, and if the Pakistani Government wants to be our friend, they can be our friend. But they have not been, and they need to change that if we are to continue on the relationship that we have. I would like to at this point to submit for the record a number of articles showing that, again, Pakistan continues to support various terrorist operations as well as their relationship with China, at the expense of their own people, the Baloch in particular, and I submit that for the record at this point.</t>
   </si>
   <si>
@@ -82,12 +103,24 @@
     <t>400344</t>
   </si>
   <si>
+    <t>Ros-Lehtinen</t>
+  </si>
+  <si>
+    <t>Ileana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ros-Lehtinen [presiding]. I will give him the opportunity to make an opening statement, if Dr. Bera would like to make one, and then I will introduce the Ambassador. He will make his statement, and we will get to the questions and answers.    Dr. Bera is recognized.</t>
   </si>
   <si>
     <t>412512</t>
   </si>
   <si>
+    <t>Bera</t>
+  </si>
+  <si>
+    <t>Ami</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bera. Thank you, Madam Chairwoman. I will keep my comments short so we can hear from the Ambassador.    Obviously, as we look at the South Asian region, we look at India, we look at Pakistan, the relationship is incredibly important, particularly as the changing mission in Afghanistan is--the role of Pakistan and India in stabilizing the region is incredibly complex and important.    It is an honor to welcome Ambassador Olson to the job. I understand this is your first month on the job, so looking forward to working with you and looking forward to furthering the relationship between the United States and South Asia and stabilizing the region. So thank you.</t>
   </si>
   <si>
@@ -97,6 +130,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Olson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Olson. Madam Chair, members of the committee, thank you for the opportunity to appear before you today to discuss the current state of the United States' bilateral relationship with Pakistan. I am honored to testify in front of you for the first time in my capacity as U.S. Special Representative for Afghanistan and Pakistan, after having served as your Ambassador in Pakistan and previously at our Embassy in Kabul. I am humbled and privileged to be in this new role at such a critical time for the U.S. relationship with both Pakistan and Afghanistan.    It is clear to me that despite many challenges, Pakistan will continue to be an important partner for the United States for the foreseeable future, particularly in light of our enduring presence in Afghanistan. While we do not always see eye to eye on every issue, our relationship with Pakistan is vital to the national security of the United States. Most importantly, we have the opportunity to continue working with Pakistan today on counterterrorism issues along with strategic stability, economic growth, and democratic governance to help shape a future in which Pakistan is more stable, increasingly prosperous, and plays a constructive role in the region.    Pakistan is a complex place, and it is important not to overlook the significant progress made in the last few years. In 2013, Pakistan completed its first democratic transition from one elected civilian government to another. During the past 2 years, we can point to progress, however imperfect, made across the economic and security sectors. Prime Minister Nawaz Sharif and his team have restored macroeconomic stability to Pakistan and improved economic growth. While structural changes are still needed to set Pakistan's economy on a path to accelerated growth, the reforms to date are a considerable accomplishment.    There has also been substantial changes on the security front. Beginning in June 2014, Pakistan initiated large-scale counterterrorism operations in the Federally Administered Tribal Areas. The subsequent Peshawar Army School attack of exactly 1 year ago today was cited by terrorists as retribution for Pakistan's operations. It galvanized public opinion in Pakistan and prompted Pakistan to increase its counterterrorism efforts, not just in tribal areas. Through these operations, Pakistan has rooted out many terrorist safe havens and recovered more than 160 tons of improvised explosive device precursors.    In addition to taking action on internal threats, Pakistan's CT cooperation with the United States on al-Qaeda has been critical in decimating the organization. However, while Pakistan has made significant sacrifices in its fight against terrorism, we believe it can also take more steps to put pressure on all terrorist groups in Pakistan that threaten regional stability.    Pakistan is becoming a more constructive actor in the region. Last July, Pakistan facilitated a direct meeting between Afghan Government and Taliban officials in Murree, Pakistan, a milestone in our ongoing efforts to pursue a political settlement in Afghanistan. Last week Pakistan hosted the Regional Heart of Asia conference, attended by President Ghani, which yielded productive discussions about regional cooperation to advance the peace process and Afghanistan's long-term stability. In addition, India and Pakistan's commitment last week to restart a bilateral dialogue is particularly important.    In describing this progress, it is nonetheless clear that real challenges remain. While we see progress in decreasing the presence of certain terrorists in Pakistan, we continue to press Pakistan to target all militant groups that have safe haven in Pakistan, particularly the Taliban, including the Haqqani Network and Lashkar-e-Tayyiba. We have made it clear to the Pakistanis that these organizations threaten Pakistan, the region, and the panoply of our mutual national security interests, and they must be addressed rigorously.    We have also asked Pakistan to do all that it can to help recover U.S. citizens hostages held on Pakistani territory. We continue to press for greater cooperation between Afghanistan and Pakistan, both to stabilize the common border region and to build the constructive relationship necessary for regional stability. It is also critical that Pakistan improve relations with its other neighbor, India. Recent high-level talks between Indian and Pakistani officials and the announcement of the resumption of formal dialogue is welcome. We hope the dialogue will be used to reduce tensions and increase ties between the two nations.    Naturally, as Pakistan seeks to combat violent extremism and pursue counterinsurgency and counterterrorism objectives, we continue to encourage and support Pakistan to strengthen the rule of law, civil liberties, respect for human rights, accountability, and freedom of speech, which we firmly believe are vital to lasting peace and security.    Our civilian assistance programs help make progress toward these economic governance ends and a developing democracy, and it is essential they are sustained at current levels.    With that, I would like to conclude my statement, Madam Chair, and I am available for your questions and comments.</t>
   </si>
   <si>
@@ -160,6 +196,12 @@
     <t>412595</t>
   </si>
   <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kelly. When you consider the future of U.S.-Pakistan relations, what do you see as the key aims and drivers of our Pakistan policy?</t>
   </si>
   <si>
@@ -199,6 +241,12 @@
     <t>400641</t>
   </si>
   <si>
+    <t>Higgins</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Higgins. Thank you, Madam Chair.</t>
   </si>
   <si>
@@ -214,6 +262,12 @@
     <t>412513</t>
   </si>
   <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cook. Thank you, Madam Chairman.    Many of the questions or comments are things that I was going to address, and I just want to follow through on that. I think Mr. Higgins made some great comments about that. I think we are all concerned because of the size of the nuclear weapons and everything else, and there is a part of me that wants to say, you know, in all fairness, Pakistan has been a great ally of ours, particularly from the military standpoint, and we never would have gotten that equipment out of Iraq because there was only one way to go, and that was through Pakistan. We kind of overlooked that, and, of course, I still think the only country that is going to control Afghanistan's destiny is Pakistan. Whether you hate them, like them or not, that to me--and I see you are shaking your head, and you agree with that--all those things considered, I am going to throw something which really, really scares me. And there has been talk that in light of the Iranian deal and the nuclear weapons in a Persian country, in a Shiite country, in your opinion, is there any possibility that Pakistan would not just give the technology but actually sell nuclear weapons to the Sunni states with money--particularly, and I won't name them, but I think we all know who they are--that this proliferation would start on a scale that would just change the whole calculus of the region?</t>
   </si>
   <si>
@@ -235,6 +289,12 @@
     <t>412532</t>
   </si>
   <si>
+    <t>Gabbard</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, Madam Chair.    Just following up on my colleague Mr. Cook's questions, you know, the concern is you are talking about robust engagement with ISI. But there has been evidence time and time again of their direct and indirect connections with the Haqqani Network. In 2011, then Chairman of the Joint Chiefs of Staff, Admiral Mike Mullin, called the Haqqani Network a veritable arm of the ISI. So as you are having these discussions, you talked a lot about how more must be done; discussions are taking place. But I am wondering what action, what change in U.S. policy has occurred that would actually bring about a consequential shift?</t>
   </si>
   <si>
@@ -271,6 +331,12 @@
     <t>412569</t>
   </si>
   <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Perry [presiding]. The Chair thanks the gentlelady.    The Chair now recognizes himself.</t>
   </si>
   <si>
@@ -307,6 +373,12 @@
     <t>412521</t>
   </si>
   <si>
+    <t>Lowenthal</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lowenthal. Thank you, Mr. Chair.    I want to follow up--I think you have probably touched on some of these answers already, but I really want to kind of deal with my own concerns. Like Congressman Higgins and Cook and others, I am troubled about the reports of Pakistan's development of what I consider destabilizing tactical nuclear weapons at a faster rate than most other countries, if not than any other country. I really want to understand, again, a little bit more clearly your assessment of Pakistan's progress in cooperating with the international community on nuclear proliferation concerns. And also the second part of that question has to do with some recent media reports suggesting that our administration is considering some kind of nuclear arrangement with Pakistan. I don't know. I am not really clear; what is a nuclear arrangement? And if we are considering it, is Pakistan really a trustworthy partner, again, in that? Again, like other members, the nuclear proliferation treaty concerns are very troubling.</t>
   </si>
   <si>
@@ -346,6 +418,9 @@
     <t>412525</t>
   </si>
   <si>
+    <t>Yoho</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Yoho. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -385,6 +460,12 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you. On November 18, Anwar Laghari, the brother of the Sindh activist who is the chief advocate here in Washington, Munawar Laghari, was killed. There is an ongoing investigation. I want to thank you and the State Department for the counsel general's focus on this. And it raises the bigger issue as to whether there are forces in Pakistan that are simply hostile to any region of the country other than Punjab. What percentage of the general officers of the military are Punjabi? I don't know if you have that available.</t>
   </si>
   <si>
@@ -445,6 +526,9 @@
     <t xml:space="preserve">    Chairman Royce. My time has expired.    But without objection, I am going to ask unanimous consent that Representative Sheila Jackson Lee be next in terms of asking any questions. She is not on the committee, but she wanted to participate today.    So, without objection, we will go to Representative Sheila Jackson Lee from Texas.</t>
   </si>
   <si>
+    <t>Jackson Lee</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Mr. Chairman, thank you for your kindness. It is much appreciated--along with the ranking member, thank you so very much.    I chair the Congressional Pakistan Caucus with my colleague and have done so for more than a decade. So thank you very much for your presence here. I am going to go pointedly to a question dealing with an American doctor of some years back. In 2014, Dr. Mehdi Ali Qamar, out of Chicago I believe, who came on a mission to serve, and, of course, he had a different religious background, Ahmadiyya. And I am just wondering did we ever solve his killing? And was there any response to that very tragic incident? From Chicago, I believe.</t>
   </si>
   <si>
@@ -503,6 +587,12 @@
   </si>
   <si>
     <t>400122</t>
+  </si>
+  <si>
+    <t>Engel</t>
+  </si>
+  <si>
+    <t>Eliot</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Engel. Thank you very much, Mr. Chairman.    And, Ambassador Olson, it is good to see you. We had a good meeting yesterday in my office. I was just debating a bill on the House floor and also a New York delegation. So I apologize for missing the first part of the hearing. But we discussed many of the issues. And I am delighted with your appointment. What I am going to do is make a statement and then ask you to comment on it. This week, we marked 5 years since the passing of Ambassador Holbrooke, who was our first Special Representative for Afghanistan and Pakistan. And we still feel his loss. He left a remarkable legacy. And his final effort was laying the groundwork for resolving the long conflict in Afghanistan and Pakistan. And I hope we are able to take advantage of that work. As I mentioned before, Ambassador Olson, I am confident that with your previous experience in both Afghanistan and Pakistan, this important task is in the right hands.    When President Obama took office, I was encouraged by the bipartisan commitment to support our military forces, diplomats, and development workers in Afghanistan, and to renew our partnership with the civilian leadership of Pakistan. This focus on Pakistan was reflected in the Kerry-Lugar-Berman bill passed by Congress in 2009. But that authorization recently expired. And now is a good time to take stock of the status of the U.S.-Pakistan relationship. We are used to hearing some bad news about Pakistan. But the Pakistani people have achieved some noteworthy accomplishments in recent years. Pakistan has seen its first peaceful transfer of power from one democratically elected government to another. I think this was a historic moment for the country.    Thanks to collaboration with our own USAID, today Pakistan has added 1750 megawatts of electricity to its energy grid, 30,000 new jobs, nearly 1,000 new or refurbished schools, and the more than 18,000 newly trained teachers. And let me commend our development experts for their hard work in a very challenging environment.    On the security side, we have seen much more modest progress. Terrorist groups based in Pakistan continue to pose a serious threat to Americans, Pakistanis, and our partners throughout South Asia and the world. Moreover, Pakistan has provided some extremist groups safe haven and a permissive environment that allows extremist ideology to spread. The result is terrorist attacks in Afghanistan, India, in the U.K., and here in the United States. But the hardest hit have been the Pakistani people. Terrorism inside Pakistan has killed more than 50,000 people since 2003. That is 50,000 people.    A year ago today, terrorists affiliated with the Pakistani Taliban, also known as TTP, massacred more than 140 teachers and students at the Army Public School in Peshawar. Absolutely horrific. After years of prodding and far too many lives lost, the Pakistani Government finally took military action against TTP in North Waziristan. Along with many others, I had high hopes for those efforts. I was also hopeful when Pakistan's Parliament took a leading role in establishing a National Action Plan to comprehensively address terrorism in the aftermath of the Peshawar attacks.    When Pakistan's Government decided it would no longer differentiate between good and bad terrorists, that suggested a real change in Pakistan's approach, a positive change, to addressing terrorism in the country. But, yet again, we have seen little evidence that the Government of Pakistan has followed through on these commitments. And so some violent groups continue to operate in Pakistan with impunity, including the Haqqani Network, responsible for the deaths of hundreds of Americans in Afghanistan, and Lashkar-e-Tayyiba, also called LET, the group responsible for the 2008 Mumbai attacks, which also cost American lives. There are some in Pakistan who believe they can manage these groups. Yet Lashkar terrorists end up fighting our troops in Afghanistan. And Haqqani Network terrorists have pledged allegiance to al-Qaeda. It is clear that Pakistan is a long way from solving these problems.    So, Ambassador Olson, as we discuss these issues, I hope we can focus on a few key areas. First of all, what is it going to take for Pakistan to stop differentiating between good and bad terrorists and start treating all terrorists as bad and all terrorists as the threat that they are? Does our own policy effectively convey to Pakistan that the harm from these relationships outweigh any perceived benefit?    Next, I am curious about how Pakistani acquiescence in or support for terrorist groups is affecting its neighbors. Can Afghanistan stabilize while Pakistan continues to host groups like the Haqqani Network? Can Pakistan and India have a normal relationship when Pakistan continues to support LET?    And, lastly, I am concerned about the messages we are sending when we continue to provide Pakistan security assistance, despite Pakistan's ongoing relationships with the Haqqani Network and LET. We need to be clear-eyed about Pakistan's counterterrorism efforts.    Now, I believe in the U.S.-Pakistan alliance. I believe that the United States and Pakistan should be allies and continue to work together. But I think the question about terrorism is a very important question. And it really has not been satisfactorily, in my opinion, met by the Pakistani Government. Also, I hope we can soon see a country strategy for Pakistan and Afghanistan from USAID so that we can maximize the remaining foreign assistance to both countries. In my view, we need to include incentives that encourage Pakistan to make much needed energy sector and tax reforms. We all want to see a peaceful, stable, and prosperous Pakistan that is an integrated part of a larger, more connected Central and South Asia. This simply cannot happen with the continued instability that exists in Pakistan and Afghanistan.    So I am wondering, Ambassador, if you could answer some of these questions I made. If you have already done it, then we can do it in writing afterwards. But if you can answer, I would be grateful. Thank you.    And I wish you good luck. And as I said before, I think you are the right man for the job.</t>
@@ -905,7 +995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,7 +1003,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,3725 +1025,4369 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
       <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
       <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
       <c r="H15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
       <c r="H17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
       <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
       <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>33</v>
+      </c>
       <c r="H22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
       <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
       <c r="H31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G32" t="s">
+        <v>60</v>
+      </c>
       <c r="H32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G34" t="s">
+        <v>60</v>
+      </c>
       <c r="H34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G36" t="s">
+        <v>60</v>
+      </c>
       <c r="H36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
       <c r="H38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
         <v>21</v>
       </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
       <c r="H40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
       <c r="H42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G43" t="s">
+        <v>29</v>
+      </c>
       <c r="H43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G44" t="s">
+        <v>75</v>
+      </c>
       <c r="H44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G46" t="s">
+        <v>75</v>
+      </c>
       <c r="H46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
       <c r="H47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G48" t="s">
+        <v>82</v>
+      </c>
       <c r="H48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G50" t="s">
+        <v>82</v>
+      </c>
       <c r="H50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G51" t="s">
+        <v>38</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G52" t="s">
+        <v>82</v>
+      </c>
       <c r="H52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G53" t="s">
+        <v>29</v>
+      </c>
       <c r="H53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G54" t="s">
+        <v>91</v>
+      </c>
       <c r="H54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G55" t="s">
+        <v>38</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G56" t="s">
+        <v>91</v>
+      </c>
       <c r="H56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G57" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G58" t="s">
+        <v>91</v>
+      </c>
       <c r="H58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G59" t="s">
+        <v>38</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>72</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G60" t="s">
+        <v>91</v>
+      </c>
       <c r="H60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G61" t="s">
+        <v>38</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>72</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G62" t="s">
+        <v>91</v>
+      </c>
       <c r="H62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G63" t="s">
+        <v>38</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>72</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G64" t="s">
+        <v>91</v>
+      </c>
       <c r="H64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>84</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G65" t="s">
+        <v>105</v>
+      </c>
       <c r="H65" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>84</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G67" t="s">
+        <v>105</v>
+      </c>
       <c r="H67" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G68" t="s">
+        <v>38</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>84</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G69" t="s">
+        <v>105</v>
+      </c>
       <c r="H69" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G70" t="s">
+        <v>38</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>84</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G71" t="s">
+        <v>105</v>
+      </c>
       <c r="H71" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G72" t="s">
+        <v>38</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>84</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G73" t="s">
+        <v>105</v>
+      </c>
       <c r="H73" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G74" t="s">
+        <v>38</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>84</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G75" t="s">
+        <v>105</v>
+      </c>
       <c r="H75" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I75" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>96</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G76" t="s">
+        <v>119</v>
+      </c>
       <c r="H76" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G77" t="s">
+        <v>38</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>96</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G78" t="s">
+        <v>119</v>
+      </c>
       <c r="H78" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I78" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G79" t="s">
+        <v>38</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>96</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G80" t="s">
+        <v>119</v>
+      </c>
       <c r="H80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I80" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G81" t="s">
+        <v>38</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>96</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G82" t="s">
+        <v>119</v>
+      </c>
       <c r="H82" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G83" t="s">
+        <v>38</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>96</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G84" t="s">
+        <v>119</v>
+      </c>
       <c r="H84" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I84" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G85" t="s">
+        <v>38</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>96</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G86" t="s">
+        <v>119</v>
+      </c>
       <c r="H86" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I86" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>84</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G87" t="s">
+        <v>105</v>
+      </c>
       <c r="H87" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I87" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>109</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G88" t="s">
+        <v>134</v>
+      </c>
       <c r="H88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I88" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G89" t="s">
+        <v>38</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>109</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G90" t="s">
+        <v>134</v>
+      </c>
       <c r="H90" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>109</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G92" t="s">
+        <v>134</v>
+      </c>
       <c r="H92" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G93" t="s">
+        <v>38</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>109</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G94" t="s">
+        <v>134</v>
+      </c>
       <c r="H94" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G95" t="s">
+        <v>38</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>109</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G96" t="s">
+        <v>134</v>
+      </c>
       <c r="H96" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I96" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G97" t="s">
+        <v>38</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>109</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="G98" t="s">
+        <v>134</v>
+      </c>
       <c r="H98" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>122</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G100" t="s">
+        <v>148</v>
+      </c>
       <c r="H100" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I100" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G101" t="s">
+        <v>38</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>122</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G102" t="s">
+        <v>148</v>
+      </c>
       <c r="H102" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I102" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>26</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G103" t="s">
+        <v>38</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>122</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G104" t="s">
+        <v>148</v>
+      </c>
       <c r="H104" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I104" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>26</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G105" t="s">
+        <v>38</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>122</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G106" t="s">
+        <v>148</v>
+      </c>
       <c r="H106" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I106" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G107" t="s">
+        <v>38</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>122</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G108" t="s">
+        <v>148</v>
+      </c>
       <c r="H108" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I108" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G109" t="s">
+        <v>38</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>122</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G110" t="s">
+        <v>148</v>
+      </c>
       <c r="H110" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I110" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G111" t="s">
+        <v>38</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>122</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G112" t="s">
+        <v>148</v>
+      </c>
       <c r="H112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I112" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>26</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G114" t="s">
+        <v>38</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>26</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G116" t="s">
+        <v>38</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>26</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G118" t="s">
+        <v>38</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>26</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G120" t="s">
+        <v>170</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G121" t="s">
+        <v>38</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>26</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G122" t="s">
+        <v>170</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>26</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G123" t="s">
+        <v>38</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>26</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G124" t="s">
+        <v>38</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>26</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G125" t="s">
+        <v>170</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>26</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G126" t="s">
+        <v>38</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>26</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G127" t="s">
+        <v>170</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>26</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G128" t="s">
+        <v>38</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>26</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G129" t="s">
+        <v>170</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>26</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G130" t="s">
+        <v>38</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G131" t="s">
+        <v>170</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>26</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G132" t="s">
+        <v>38</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>26</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G133" t="s">
+        <v>170</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>26</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G134" t="s">
+        <v>38</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>26</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G135" t="s">
+        <v>170</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>26</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G136" t="s">
+        <v>38</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>26</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G137" t="s">
+        <v>170</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
       <c r="H138" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>190</v>
+      </c>
+      <c r="G139" t="s">
+        <v>191</v>
+      </c>
       <c r="H139" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>192</v>
+      </c>
+      <c r="I139" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>26</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G140" t="s">
+        <v>38</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>162</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>190</v>
+      </c>
+      <c r="G141" t="s">
+        <v>191</v>
+      </c>
       <c r="H141" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>192</v>
+      </c>
+      <c r="I141" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
       <c r="H142" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>60</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G143" t="s">
+        <v>75</v>
+      </c>
       <c r="H143" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I143" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>26</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G144" t="s">
+        <v>38</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>60</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G145" t="s">
+        <v>75</v>
+      </c>
       <c r="H145" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I145" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
       <c r="H146" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>122</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G147" t="s">
+        <v>148</v>
+      </c>
       <c r="H147" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I147" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>26</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G148" t="s">
+        <v>38</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>122</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G149" t="s">
+        <v>148</v>
+      </c>
       <c r="H149" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I149" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>26</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G150" t="s">
+        <v>38</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>122</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G151" t="s">
+        <v>148</v>
+      </c>
       <c r="H151" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I151" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
       <c r="H152" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>122</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G153" t="s">
+        <v>148</v>
+      </c>
       <c r="H153" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I153" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
       <c r="H154" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>122</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G155" t="s">
+        <v>148</v>
+      </c>
       <c r="H155" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I155" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
       <c r="H156" t="s">
-        <v>180</v>
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97997.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97997.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Royce</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400652</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Poe</t>
   </si>
   <si>
@@ -587,6 +596,9 @@
   </si>
   <si>
     <t>400122</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Engel</t>
@@ -995,7 +1007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:J156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1003,7 +1015,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,4366 +1040,4700 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
         <v>32</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I11" t="s">
         <v>33</v>
       </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G34" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I34" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I50" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
-      </c>
-      <c r="G51" t="s">
-        <v>38</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I52" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I53" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G54" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I54" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
-      </c>
-      <c r="G55" t="s">
-        <v>38</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G56" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I56" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
-      </c>
-      <c r="G57" t="s">
-        <v>38</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G58" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
-      </c>
-      <c r="G59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G60" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I60" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G61" t="s">
-        <v>38</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G62" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I62" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
-      </c>
-      <c r="G63" t="s">
-        <v>38</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>41</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G64" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I64" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>95</v>
+      </c>
+      <c r="J64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G65" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I65" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
-      </c>
-      <c r="G66" t="s">
-        <v>38</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>41</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G67" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I67" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
-      </c>
-      <c r="G68" t="s">
-        <v>38</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G69" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I69" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
-      </c>
-      <c r="G70" t="s">
-        <v>38</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>41</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G71" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I71" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
-      </c>
-      <c r="G72" t="s">
-        <v>38</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>41</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G73" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I73" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
-      </c>
-      <c r="G74" t="s">
-        <v>38</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>41</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G75" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I75" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G76" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I76" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J76" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G77" t="s">
-        <v>38</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>41</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G78" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I78" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
-      </c>
-      <c r="G79" t="s">
-        <v>38</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>41</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G80" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I80" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J80" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
-      </c>
-      <c r="G81" t="s">
-        <v>38</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>41</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G82" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I82" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J82" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
-      </c>
-      <c r="G83" t="s">
-        <v>38</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>41</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G84" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
-      </c>
-      <c r="G85" t="s">
-        <v>38</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>41</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G86" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="H86" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I86" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G87" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I87" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G88" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="I88" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J88" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
-      </c>
-      <c r="G89" t="s">
-        <v>38</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>41</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G90" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="I90" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J90" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
-      </c>
-      <c r="G91" t="s">
-        <v>38</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>41</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G92" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="I92" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J92" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
-      </c>
-      <c r="G93" t="s">
-        <v>38</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>41</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G94" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="I94" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J94" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
-      </c>
-      <c r="G95" t="s">
-        <v>38</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>41</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G96" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="H96" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="I96" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J96" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
-      </c>
-      <c r="G97" t="s">
-        <v>38</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>41</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G98" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="I98" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J98" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G100" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="H100" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I100" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J100" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
-      </c>
-      <c r="G101" t="s">
-        <v>38</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>41</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G102" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I102" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
-      </c>
-      <c r="G103" t="s">
-        <v>38</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>41</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G104" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="H104" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I104" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J104" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
-      </c>
-      <c r="G105" t="s">
-        <v>38</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>41</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G106" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I106" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J106" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
-      </c>
-      <c r="G107" t="s">
-        <v>38</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>41</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G108" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I108" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
-      </c>
-      <c r="G109" t="s">
-        <v>38</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>41</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G110" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="H110" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I110" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
-      </c>
-      <c r="G111" t="s">
-        <v>38</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>41</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G112" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="H112" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I112" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J112" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
-      </c>
-      <c r="G114" t="s">
-        <v>38</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>41</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
-      </c>
-      <c r="G116" t="s">
-        <v>38</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>41</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
-      </c>
-      <c r="G118" t="s">
-        <v>38</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>41</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
-      </c>
-      <c r="G120" t="s">
-        <v>170</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>173</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
-      </c>
-      <c r="G121" t="s">
-        <v>38</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>41</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
-      </c>
-      <c r="G122" t="s">
-        <v>170</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
+        <v>40</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
-      </c>
-      <c r="G123" t="s">
-        <v>38</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>41</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
-      </c>
-      <c r="G124" t="s">
-        <v>38</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>41</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
-      </c>
-      <c r="G125" t="s">
-        <v>170</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>173</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
-      </c>
-      <c r="G126" t="s">
-        <v>38</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>41</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
-      </c>
-      <c r="G127" t="s">
-        <v>170</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>173</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
-      </c>
-      <c r="G128" t="s">
-        <v>38</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>41</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
-      </c>
-      <c r="G129" t="s">
-        <v>170</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>173</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
-      </c>
-      <c r="G130" t="s">
-        <v>38</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>41</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
-      </c>
-      <c r="G131" t="s">
-        <v>170</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>173</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
-      </c>
-      <c r="G132" t="s">
-        <v>38</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>41</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
-      </c>
-      <c r="G133" t="s">
-        <v>170</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>173</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
-      </c>
-      <c r="G134" t="s">
-        <v>38</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>41</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
-      </c>
-      <c r="G135" t="s">
-        <v>170</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>173</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
-      </c>
-      <c r="G136" t="s">
-        <v>38</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>41</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
-      </c>
-      <c r="G137" t="s">
-        <v>170</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>173</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I138" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G139" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H139" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I139" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J139" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
-      </c>
-      <c r="G140" t="s">
-        <v>38</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>41</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G141" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H141" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I141" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J141" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G143" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="H143" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I143" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J143" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
-      </c>
-      <c r="G144" t="s">
-        <v>38</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>41</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G145" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="H145" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I145" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J145" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I146" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J146" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G147" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="H147" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I147" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J147" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
-      </c>
-      <c r="G148" t="s">
-        <v>38</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>41</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G149" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="H149" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I149" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J149" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
-      </c>
-      <c r="G150" t="s">
-        <v>38</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>41</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G151" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="H151" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I151" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J151" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I152" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J152" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G153" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="H153" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I153" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J153" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I154" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J154" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G155" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="H155" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I155" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J155" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I156" t="s">
-        <v>210</v>
+        <v>16</v>
+      </c>
+      <c r="J156" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
